--- a/Railway Announcement/announce_hindi.xlsx
+++ b/Railway Announcement/announce_hindi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haris\Desktop\code playground\Tuts\Raiway announcement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aakash Garg\Desktop\Github\Python Projects\Railway Announcement\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C570289B-F13C-4D1A-9D89-6DEE99BC3F99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>train_no</t>
   </si>
@@ -72,12 +73,30 @@
   </si>
   <si>
     <t>Ghaziabad</t>
+  </si>
+  <si>
+    <t>1 4 3 1 7</t>
+  </si>
+  <si>
+    <t>shuttle</t>
+  </si>
+  <si>
+    <t>Hapur</t>
+  </si>
+  <si>
+    <t>1 4 3 1 8</t>
+  </si>
+  <si>
+    <t>faizabad express</t>
+  </si>
+  <si>
+    <t>Faizabad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,22 +407,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -443,7 +462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -461,6 +480,46 @@
       </c>
       <c r="F3">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
